--- a/Docs/ISIS1225 - Tablas de Datos Lab 7 - Maquina 1.xlsx
+++ b/Docs/ISIS1225 - Tablas de Datos Lab 7 - Maquina 1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uniandes.sharepoint.com/sites/ISIS1225/Documentos compartidos/General/202110/Laboratorios/Lab 07 - Colisiones/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Universidad\Segundo Semestre\EDA\Laboratorios\Laboratorio 7\reps\abCollision-S03-G03\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="511" documentId="8_{A25BB2A9-7879-4ABF-A93E-5BD797619927}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{5A6E5986-5D76-40E6-8BB6-4E7550720C79}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B708A646-6392-4439-869F-0296F9E031C4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-2127" yWindow="7073" windowWidth="4267" windowHeight="2354" tabRatio="767" xr2:uid="{D82936D8-D2C9-4EB2-9CBC-3665F65B95FD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="767" activeTab="1" xr2:uid="{D82936D8-D2C9-4EB2-9CBC-3665F65B95FD}"/>
   </bookViews>
   <sheets>
     <sheet name="Datos Lab7" sheetId="1" r:id="rId1"/>
@@ -97,15 +97,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9D9D9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -113,11 +119,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -131,11 +146,26 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="10">
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -163,30 +193,10 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
       <numFmt numFmtId="2" formatCode="0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
       <font>
@@ -281,84 +291,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -408,14 +340,14 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
+      <c14:style val="108"/>
     </mc:Choice>
     <mc:Fallback>
-      <c:style val="2"/>
+      <c:style val="8"/>
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
@@ -426,11 +358,10 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -439,20 +370,10 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="es-419" sz="1800" b="1">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>Comparación de Tiempo</a:t>
+              <a:rPr lang="es-419"/>
+              <a:t>Comparación de Tiempo y Memoria utilizados en PROBING y CHAINING </a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="es-419" sz="1800" b="1" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t> y Memoria utilizados en PROBING y CHAINING </a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US" sz="1800" b="1">
-              <a:effectLst/>
-            </a:endParaRPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -469,11 +390,10 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
@@ -481,13 +401,23 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-CO"/>
         </a:p>
       </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="9.6471675005124616E-2"/>
+          <c:y val="0.12485306751556584"/>
+          <c:w val="0.85142931593032001"/>
+          <c:h val="0.7921669854269312"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="0"/>
@@ -506,36 +436,58 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="22225" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent6"/>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
               </a:solidFill>
-              <a:round/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent6">
+                  <a:tint val="77000"/>
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:size val="3"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent6"/>
+                <a:schemeClr val="accent6">
+                  <a:tint val="77000"/>
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
               </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent6"/>
-                </a:solidFill>
+              <a:ln>
+                <a:noFill/>
               </a:ln>
-              <a:effectLst/>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="accent6">
+                    <a:tint val="77000"/>
+                    <a:satMod val="175000"/>
+                    <a:alpha val="25000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
             </c:spPr>
           </c:marker>
           <c:trendline>
             <c:spPr>
-              <a:ln w="19050" cap="rnd">
+              <a:ln w="25400" cap="rnd">
                 <a:solidFill>
-                  <a:schemeClr val="accent6"/>
+                  <a:schemeClr val="accent6">
+                    <a:tint val="77000"/>
+                    <a:alpha val="50000"/>
+                  </a:schemeClr>
                 </a:solidFill>
-                <a:prstDash val="sysDot"/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -558,9 +510,8 @@
                   <a:pPr>
                     <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                       <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="75000"/>
                         </a:schemeClr>
                       </a:solidFill>
                       <a:latin typeface="+mn-lt"/>
@@ -568,10 +519,26 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="es-CO"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="25400" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent6">
+                    <a:tint val="77000"/>
+                    <a:alpha val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="exp"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
           </c:trendline>
           <c:xVal>
             <c:numRef>
@@ -580,13 +547,13 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>100</c:v>
+                  <c:v>1623637.4739999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>105</c:v>
+                  <c:v>1623637.5319999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>115</c:v>
+                  <c:v>1623637.4779999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -598,13 +565,13 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>45</c:v>
+                  <c:v>27223.031999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>55</c:v>
+                  <c:v>27516.48</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>75</c:v>
+                  <c:v>28231.18</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -631,36 +598,55 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="22225" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent5"/>
+                <a:srgbClr val="7030A0"/>
               </a:solidFill>
-              <a:round/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent6">
+                  <a:shade val="76000"/>
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:size val="3"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent5"/>
+                <a:schemeClr val="accent6">
+                  <a:shade val="76000"/>
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
               </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent5"/>
-                </a:solidFill>
+              <a:ln>
+                <a:noFill/>
               </a:ln>
-              <a:effectLst/>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="accent6">
+                    <a:shade val="76000"/>
+                    <a:satMod val="175000"/>
+                    <a:alpha val="25000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
             </c:spPr>
           </c:marker>
           <c:trendline>
             <c:spPr>
-              <a:ln w="19050" cap="rnd">
+              <a:ln w="25400" cap="rnd">
                 <a:solidFill>
-                  <a:schemeClr val="accent5"/>
+                  <a:schemeClr val="accent6">
+                    <a:shade val="76000"/>
+                    <a:alpha val="50000"/>
+                  </a:schemeClr>
                 </a:solidFill>
-                <a:prstDash val="sysDot"/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -684,9 +670,8 @@
                   <a:pPr>
                     <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                       <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="75000"/>
                         </a:schemeClr>
                       </a:solidFill>
                       <a:latin typeface="+mn-lt"/>
@@ -694,7 +679,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="es-CO"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -706,13 +691,13 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>100</c:v>
+                  <c:v>1623662.165</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>120</c:v>
+                  <c:v>1623662.165</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>140</c:v>
+                  <c:v>1623662.165</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -724,13 +709,13 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>90</c:v>
+                  <c:v>28631.702000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>100</c:v>
+                  <c:v>28796.579000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>110</c:v>
+                  <c:v>28930.513999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -757,6 +742,8 @@
         <c:axId val="696671312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1640000"/>
+          <c:min val="1620000"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -764,9 +751,10 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                  <a:alpha val="75000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:round/>
@@ -781,11 +769,10 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
                       </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
@@ -794,17 +781,15 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" b="1"/>
+                  <a:rPr lang="en-US"/>
                   <a:t>Memoria Utilizada [</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="es-419" sz="1000" b="1" i="0" u="none" strike="noStrike" baseline="0">
-                    <a:effectLst/>
-                  </a:rPr>
+                  <a:rPr lang="es-419"/>
                   <a:t>kB</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="en-US" b="1"/>
+                  <a:rPr lang="en-US"/>
                   <a:t>]</a:t>
                 </a:r>
               </a:p>
@@ -823,11 +808,10 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="75000"/>
                     </a:schemeClr>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
@@ -835,7 +819,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-CO"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -847,9 +831,8 @@
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="50000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -863,9 +846,8 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -873,7 +855,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1833162896"/>
@@ -884,6 +866,8 @@
         <c:axId val="1833162896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="29000"/>
+          <c:min val="27000"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -891,9 +875,10 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                  <a:alpha val="75000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:round/>
@@ -908,11 +893,10 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
                       </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
@@ -921,14 +905,9 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" b="1"/>
-                  <a:t>Tiempo</a:t>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Tiempo de ejecución [ms]</a:t>
                 </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" b="1" baseline="0"/>
-                  <a:t> de ejecución [ms]</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US" b="1"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -945,11 +924,10 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="75000"/>
                     </a:schemeClr>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
@@ -957,7 +935,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-CO"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -969,9 +947,8 @@
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="50000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -985,9 +962,8 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -995,7 +971,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="696671312"/>
@@ -1011,7 +987,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="b"/>
+      <c:legendPos val="t"/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1027,9 +1003,8 @@
           <a:pPr>
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="75000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
@@ -1037,7 +1012,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-CO"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1054,11 +1029,14 @@
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:schemeClr val="bg1"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="tx1">
+        <a:schemeClr val="dk1">
           <a:lumMod val="15000"/>
           <a:lumOff val="85000"/>
         </a:schemeClr>
@@ -1074,100 +1052,59 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-CO"/>
     </a:p>
   </c:txPr>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinearReversed" id="26">
   <a:schemeClr val="accent6"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent4"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
 </cs:colorStyle>
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="245">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+  <cs:chartArea>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="bg1"/>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
       </a:solidFill>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -1175,16 +1112,15 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
+      <a:schemeClr val="lt1">
         <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -1194,23 +1130,18 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="15000"/>
+        <a:lumOff val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="lt1"/>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
       </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
     <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
@@ -1218,63 +1149,123 @@
     </cs:bodyPr>
   </cs:dataLabelCallout>
   <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:effectRef idx="0">
       <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="19050" cap="rnd">
+      <a:ln w="22225" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:round/>
       </a:ln>
+      <a:effectLst>
+        <a:glow rad="139700">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="14000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
     </cs:spPr>
   </cs:dataPointLine>
   <cs:dataPointMarker>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:lumMod val="60000"/>
+          <a:lumOff val="40000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="3"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
@@ -1298,21 +1289,18 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -1322,20 +1310,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1347,14 +1334,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1366,14 +1352,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1385,14 +1370,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
@@ -1404,9 +1383,10 @@
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+            <a:alpha val="75000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1423,9 +1403,10 @@
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+            <a:alpha val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1437,14 +1418,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="lt1">
             <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1456,14 +1436,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1475,27 +1454,26 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+  <cs:plotArea>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+  <cs:plotArea3D>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -1503,9 +1481,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -1515,14 +1492,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1534,12 +1510,11 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:defRPr sz="1400" b="1" kern="1200" cap="none" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -1548,14 +1523,15 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="19050" cap="rnd">
+      <a:ln w="25400" cap="rnd">
         <a:solidFill>
-          <a:schemeClr val="phClr"/>
+          <a:schemeClr val="phClr">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
         </a:solidFill>
-        <a:prstDash val="sysDot"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -1564,9 +1540,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -1576,17 +1551,18 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="lt1"/>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="85000"/>
+        </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1598,37 +1574,30 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr/>
   </cs:valueAxis>
   <cs:wall>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -1637,7 +1606,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{CA07E00A-1DDB-47A3-B681-B59870FF7EA9}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="115" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="115" workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -1648,7 +1617,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8661768" cy="6283739"/>
+    <xdr:ext cx="8688457" cy="6303065"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -1681,16 +1650,16 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{072D0253-75B0-4C0B-8972-D03303899249}" name="Table1" displayName="Table1" ref="A2:C5" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
   <autoFilter ref="A2:C5" xr:uid="{B245DDE7-54F2-4A7A-AC17-5CA17DD7B03F}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{A7AF2A2F-BC4B-404E-9B8B-256DA178E68B}" name="Factor de Carga (PROBING)" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{23CECC62-35E0-466E-9502-4F5CC2E6F7A7}" name="Consumo de Datos [kB]" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{19B1D273-887B-4392-991E-015D36D99E5B}" name="Tiempo de Ejecución [ms]" dataDxfId="5"/>
+    <tableColumn id="1" xr3:uid="{A7AF2A2F-BC4B-404E-9B8B-256DA178E68B}" name="Factor de Carga (PROBING)" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{23CECC62-35E0-466E-9502-4F5CC2E6F7A7}" name="Consumo de Datos [kB]" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{19B1D273-887B-4392-991E-015D36D99E5B}" name="Tiempo de Ejecución [ms]" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C35EFFA4-2B65-46C5-8257-6884800B9577}" name="Table13" displayName="Table13" ref="A9:C12" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C35EFFA4-2B65-46C5-8257-6884800B9577}" name="Table13" displayName="Table13" ref="A9:C12" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
   <autoFilter ref="A9:C12" xr:uid="{5C24B5A8-1B8E-4092-B34A-66FF5413D106}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{16584851-71BC-4FF5-B248-C3F46BA653AF}" name="Factor de Carga (CHAINING)" dataDxfId="2"/>
@@ -1702,7 +1671,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2000,25 +1969,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5B14742-4EBB-4241-AC8A-0E5F24F7BB7B}">
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.64453125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.05859375" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.8203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.85546875" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -2029,47 +1998,47 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>0.3</v>
       </c>
-      <c r="B3" s="2">
-        <v>100</v>
-      </c>
-      <c r="C3" s="2">
-        <v>45</v>
+      <c r="B3" s="5">
+        <v>1623637.4739999999</v>
+      </c>
+      <c r="C3" s="5">
+        <v>27223.031999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>0.5</v>
       </c>
-      <c r="B4" s="2">
-        <v>105</v>
-      </c>
-      <c r="C4" s="2">
-        <v>55</v>
+      <c r="B4" s="6">
+        <v>1623637.5319999999</v>
+      </c>
+      <c r="C4" s="6">
+        <v>27516.48</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>0.8</v>
       </c>
-      <c r="B5" s="2">
-        <v>115</v>
-      </c>
-      <c r="C5" s="2">
-        <v>75</v>
+      <c r="B5" s="7">
+        <v>1623637.4779999999</v>
+      </c>
+      <c r="C5" s="7">
+        <v>28231.18</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>1</v>
       </c>
@@ -2080,40 +2049,40 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>2</v>
       </c>
-      <c r="B10" s="2">
-        <v>100</v>
-      </c>
-      <c r="C10" s="2">
-        <v>90</v>
+      <c r="B10" s="5">
+        <v>1623662.165</v>
+      </c>
+      <c r="C10" s="5">
+        <v>28631.702000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>4</v>
       </c>
-      <c r="B11" s="2">
-        <v>120</v>
-      </c>
-      <c r="C11" s="2">
-        <v>100</v>
+      <c r="B11" s="6">
+        <v>1623662.165</v>
+      </c>
+      <c r="C11" s="6">
+        <v>28796.579000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>6</v>
       </c>
-      <c r="B12" s="2">
-        <v>140</v>
-      </c>
-      <c r="C12" s="2">
-        <v>110</v>
+      <c r="B12" s="7">
+        <v>1623662.165</v>
+      </c>
+      <c r="C12" s="7">
+        <v>28930.513999999999</v>
       </c>
     </row>
-    <row r="21" ht="14.7" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="21" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:C1"/>
@@ -2339,18 +2308,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2373,6 +2342,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8DF3742-38F2-4B99-B335-CC4F04ED9F45}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97C5E1E0-C817-4769-9D2D-1DC296B681FA}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="164883f8-7691-4ecf-b54a-664c0d0edefe"/>
@@ -2387,12 +2364,4 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8DF3742-38F2-4B99-B335-CC4F04ED9F45}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Docs/ISIS1225 - Tablas de Datos Lab 7 - Maquina 1.xlsx
+++ b/Docs/ISIS1225 - Tablas de Datos Lab 7 - Maquina 1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Universidad\Segundo Semestre\EDA\Laboratorios\Laboratorio 7\reps\abCollision-S03-G03\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B708A646-6392-4439-869F-0296F9E031C4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09910746-AA21-4715-A9DD-1A87C934E5A0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="767" activeTab="1" xr2:uid="{D82936D8-D2C9-4EB2-9CBC-3665F65B95FD}"/>
   </bookViews>
@@ -161,10 +161,30 @@
   </cellStyles>
   <dxfs count="10">
     <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -191,12 +211,6 @@
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
       <font>
@@ -291,6 +305,84 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -344,10 +436,10 @@
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="108"/>
+      <c14:style val="102"/>
     </mc:Choice>
     <mc:Fallback>
-      <c:style val="8"/>
+      <c:style val="2"/>
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
@@ -407,17 +499,7 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="9.6471675005124616E-2"/>
-          <c:y val="0.12485306751556584"/>
-          <c:w val="0.85142931593032001"/>
-          <c:h val="0.7921669854269312"/>
-        </c:manualLayout>
-      </c:layout>
+      <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="0"/>
@@ -438,16 +520,12 @@
           <c:spPr>
             <a:ln w="22225" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="60000"/>
-                  <a:lumOff val="40000"/>
-                </a:schemeClr>
+                <a:schemeClr val="accent6"/>
               </a:solidFill>
             </a:ln>
             <a:effectLst>
               <a:glow rad="139700">
                 <a:schemeClr val="accent6">
-                  <a:tint val="77000"/>
                   <a:satMod val="175000"/>
                   <a:alpha val="14000"/>
                 </a:schemeClr>
@@ -460,7 +538,6 @@
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent6">
-                  <a:tint val="77000"/>
                   <a:lumMod val="60000"/>
                   <a:lumOff val="40000"/>
                 </a:schemeClr>
@@ -471,7 +548,6 @@
               <a:effectLst>
                 <a:glow rad="63500">
                   <a:schemeClr val="accent6">
-                    <a:tint val="77000"/>
                     <a:satMod val="175000"/>
                     <a:alpha val="25000"/>
                   </a:schemeClr>
@@ -484,7 +560,6 @@
               <a:ln w="25400" cap="rnd">
                 <a:solidFill>
                   <a:schemeClr val="accent6">
-                    <a:tint val="77000"/>
                     <a:alpha val="50000"/>
                   </a:schemeClr>
                 </a:solidFill>
@@ -523,22 +598,6 @@
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
-          </c:trendline>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="25400" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent6">
-                    <a:tint val="77000"/>
-                    <a:alpha val="50000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="exp"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
           </c:trendline>
           <c:xVal>
             <c:numRef>
@@ -600,13 +659,12 @@
           <c:spPr>
             <a:ln w="22225" cap="rnd">
               <a:solidFill>
-                <a:srgbClr val="7030A0"/>
+                <a:schemeClr val="accent5"/>
               </a:solidFill>
             </a:ln>
             <a:effectLst>
               <a:glow rad="139700">
-                <a:schemeClr val="accent6">
-                  <a:shade val="76000"/>
+                <a:schemeClr val="accent5">
                   <a:satMod val="175000"/>
                   <a:alpha val="14000"/>
                 </a:schemeClr>
@@ -618,8 +676,7 @@
             <c:size val="3"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent6">
-                  <a:shade val="76000"/>
+                <a:schemeClr val="accent5">
                   <a:lumMod val="60000"/>
                   <a:lumOff val="40000"/>
                 </a:schemeClr>
@@ -629,8 +686,7 @@
               </a:ln>
               <a:effectLst>
                 <a:glow rad="63500">
-                  <a:schemeClr val="accent6">
-                    <a:shade val="76000"/>
+                  <a:schemeClr val="accent5">
                     <a:satMod val="175000"/>
                     <a:alpha val="25000"/>
                   </a:schemeClr>
@@ -642,8 +698,7 @@
             <c:spPr>
               <a:ln w="25400" cap="rnd">
                 <a:solidFill>
-                  <a:schemeClr val="accent6">
-                    <a:shade val="76000"/>
+                  <a:schemeClr val="accent5">
                     <a:alpha val="50000"/>
                   </a:schemeClr>
                 </a:solidFill>
@@ -742,8 +797,8 @@
         <c:axId val="696671312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="1640000"/>
-          <c:min val="1620000"/>
+          <c:max val="1623700"/>
+          <c:min val="1623600"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -1059,8 +1114,39 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinearReversed" id="26">
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
   <a:schemeClr val="accent6"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent4"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
 </cs:colorStyle>
 </file>
 
@@ -1650,16 +1736,16 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{072D0253-75B0-4C0B-8972-D03303899249}" name="Table1" displayName="Table1" ref="A2:C5" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
   <autoFilter ref="A2:C5" xr:uid="{B245DDE7-54F2-4A7A-AC17-5CA17DD7B03F}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{A7AF2A2F-BC4B-404E-9B8B-256DA178E68B}" name="Factor de Carga (PROBING)" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{23CECC62-35E0-466E-9502-4F5CC2E6F7A7}" name="Consumo de Datos [kB]" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{19B1D273-887B-4392-991E-015D36D99E5B}" name="Tiempo de Ejecución [ms]" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{A7AF2A2F-BC4B-404E-9B8B-256DA178E68B}" name="Factor de Carga (PROBING)" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{23CECC62-35E0-466E-9502-4F5CC2E6F7A7}" name="Consumo de Datos [kB]" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{19B1D273-887B-4392-991E-015D36D99E5B}" name="Tiempo de Ejecución [ms]" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C35EFFA4-2B65-46C5-8257-6884800B9577}" name="Table13" displayName="Table13" ref="A9:C12" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C35EFFA4-2B65-46C5-8257-6884800B9577}" name="Table13" displayName="Table13" ref="A9:C12" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
   <autoFilter ref="A9:C12" xr:uid="{5C24B5A8-1B8E-4092-B34A-66FF5413D106}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{16584851-71BC-4FF5-B248-C3F46BA653AF}" name="Factor de Carga (CHAINING)" dataDxfId="2"/>
@@ -1970,14 +2056,14 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.7109375" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -2097,6 +2183,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x01010023858CF01A2EF24688B692775F4C60A4" ma:contentTypeVersion="11" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="04b510ef1bc187d79b842c792d256c41">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="164883f8-7691-4ecf-b54a-664c0d0edefe" xmlns:ns3="85e30bcc-d76c-4413-8e4d-2dce22fb0743" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9049981c3eb1ee76226ec9e2f8ecd7b4" ns2:_="" ns3:_="">
     <xsd:import namespace="164883f8-7691-4ecf-b54a-664c0d0edefe"/>
@@ -2307,7 +2399,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -2316,13 +2408,24 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97C5E1E0-C817-4769-9D2D-1DC296B681FA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="164883f8-7691-4ecf-b54a-664c0d0edefe"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="85e30bcc-d76c-4413-8e4d-2dce22fb0743"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{93C2AFC4-FCA8-4617-A6BD-EF7AAAEEB795}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2341,27 +2444,10 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8DF3742-38F2-4B99-B335-CC4F04ED9F45}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97C5E1E0-C817-4769-9D2D-1DC296B681FA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="164883f8-7691-4ecf-b54a-664c0d0edefe"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="85e30bcc-d76c-4413-8e4d-2dce22fb0743"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>